--- a/microgrid_base/设备信息库各参数_10_12.xlsx
+++ b/microgrid_base/设备信息库各参数_10_12.xlsx
@@ -2884,13 +2884,13 @@
     <t>传输功率（kW）</t>
   </si>
   <si>
-    <t>产氢流量（kg/h）</t>
+    <t>产氢流量（kg）</t>
   </si>
   <si>
     <t>产热功率（kW）</t>
   </si>
   <si>
-    <t>耗氢流量（kg/h）</t>
+    <t>耗氢流量（kg）</t>
   </si>
   <si>
     <t>氢负荷</t>
@@ -3880,10 +3880,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
